--- a/results/2020_5_27報告分/cal.xlsx
+++ b/results/2020_5_27報告分/cal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4893E1B-A276-407D-81E7-4761E8BB9352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BC1689-EBBD-4523-922A-523C1FF010AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>d2v (manga109)</t>
   </si>
@@ -86,6 +86,25 @@
   <si>
     <t>neutral</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>驚愕</t>
+  </si>
+  <si>
+    <t>BERT (Last Layer)</t>
+  </si>
+  <si>
+    <t>ニュートラル</t>
+  </si>
+  <si>
+    <t>喜楽</t>
+  </si>
+  <si>
+    <t>BERT (Fixed)</t>
   </si>
 </sst>
 </file>
@@ -131,11 +150,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,618 +439,1017 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:T10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="C2" t="s">
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>6</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.65149999999999997</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.20680000000000001</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.5373</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.63149999999999995</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.60750000000000004</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.625</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.66659999999999997</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.39999000000000001</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>0.66149999999999998</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>0.35709999999999997</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>0.31240000000000001</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>0.5625</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.36359999999999998</v>
       </c>
       <c r="Q3" s="1">
         <v>0.36359999999999998</v>
       </c>
       <c r="R3" s="1">
-        <f>AVERAGE(F3,C3,I3,L3,O3)</f>
-        <v>0.60755999999999999</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="S3" s="1">
         <f>AVERAGE(G3,D3,J3,M3,P3)</f>
+        <v>0.60755999999999999</v>
+      </c>
+      <c r="T3" s="1">
+        <f>AVERAGE(H3,E3,K3,N3,Q3)</f>
         <v>0.46376000000000001</v>
       </c>
-      <c r="T3" s="1">
-        <f t="shared" ref="T3" si="0">AVERAGE(H3,E3,K3,N3,Q3)</f>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3" si="0">AVERAGE(I3,F3,L3,O3,R3)</f>
         <v>0.37805800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.65149999999999997</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.14810000000000001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.43280000000000002</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.44729999999999998</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.47220000000000001</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.78120000000000001</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.5</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0.46150000000000002</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>0.81540000000000001</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>0.64280000000000004</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>0.59989999999999999</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>0.53120000000000001</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>0.40899999999999997</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>0.375</v>
       </c>
-      <c r="R4" s="1">
-        <f t="shared" ref="R4:R5" si="1">AVERAGE(F4,C4,I4,L4,O4)</f>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S5" si="1">AVERAGE(G4,D4,J4,M4,P4)</f>
         <v>0.64241999999999999</v>
       </c>
-      <c r="S4" s="1">
-        <f t="shared" ref="S4:S7" si="2">AVERAGE(G4,D4,J4,M4,P4)</f>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T7" si="2">AVERAGE(H4,E4,K4,N4,Q4)</f>
         <v>0.43981999999999999</v>
       </c>
-      <c r="T4" s="1">
-        <f t="shared" ref="T4:T7" si="3">AVERAGE(H4,E4,K4,N4,Q4)</f>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U7" si="3">AVERAGE(I4,F4,L4,O4,R4)</f>
         <v>0.41134000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.62119999999999997</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.13789999999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.6119</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.57889999999999997</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.62849999999999995</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.75</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.25</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.2727</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>0.7077</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>0.42849999999999999</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>0.38700000000000001</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>0.53120000000000001</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>0.45450000000000002</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>0.39989999999999998</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <f t="shared" si="1"/>
         <v>0.64439999999999997</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <f t="shared" si="2"/>
         <v>0.38237999999999994</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <f t="shared" si="3"/>
         <v>0.36519999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.80300000000000005</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.43280000000000002</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>0.1875</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.31569999999999998</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>0.21540000000000001</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>0.35439999999999999</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>0.34379999999999999</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>0.51160000000000005</v>
       </c>
-      <c r="R6" s="1">
-        <f>AVERAGE(F6,C6,I6,L6,O6)</f>
+      <c r="S6" s="1">
+        <f>AVERAGE(G6,D6,J6,M6,P6)</f>
         <v>0.39649999999999996</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <f t="shared" si="3"/>
         <v>0.23633999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.83330000000000004</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.42099999999999999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.56720000000000004</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.57889999999999997</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.60270000000000001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.79690000000000005</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>0.1333</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>0.8</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>0.35709999999999997</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>0.43469999999999998</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>0.65620000000000001</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>0.45450000000000002</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>0.47610000000000002</v>
       </c>
-      <c r="R7" s="1">
-        <f>AVERAGE(F7,C7,I7,L7,O7)</f>
+      <c r="S7" s="1">
+        <f>AVERAGE(G7,D7,J7,M7,P7)</f>
         <v>0.73072000000000004</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <f t="shared" si="2"/>
         <v>0.37476000000000004</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <f t="shared" si="3"/>
         <v>0.41356000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.81820000000000004</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.45450000000000002</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.4627</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.42099999999999999</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.47049999999999997</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.76559999999999995</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.76919999999999999</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>0.42849999999999999</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>0.44440000000000002</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>0.625</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>0.40899999999999997</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>0.42849999999999999</v>
       </c>
-      <c r="R8" s="1">
-        <f>AVERAGE(F8,C8,I8,L8,O8)</f>
+      <c r="S8" s="1">
+        <f>AVERAGE(G8,D8,J8,M8,P8)</f>
         <v>0.68813999999999997</v>
       </c>
-      <c r="S8" s="1">
-        <f t="shared" ref="S8" si="4">AVERAGE(G8,D8,J8,M8,P8)</f>
+      <c r="T8" s="1">
+        <f t="shared" ref="T8" si="4">AVERAGE(H8,E8,K8,N8,Q8)</f>
         <v>0.35170000000000001</v>
       </c>
-      <c r="T8" s="1">
-        <f t="shared" ref="T8" si="5">AVERAGE(H8,E8,K8,N8,Q8)</f>
+      <c r="U8" s="1">
+        <f t="shared" ref="U8" si="5">AVERAGE(I8,F8,L8,O8,R8)</f>
         <v>0.35958000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.75760000000000005</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.80600000000000005</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.85940000000000005</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.66149999999999998</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>0.64700000000000002</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>0.5</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>0.71879999999999999</v>
       </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" ref="R9:R10" si="6">AVERAGE(F9,C9,I9,L9,O9)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" ref="S9:S10" si="6">AVERAGE(G9,D9,J9,M9,P9)</f>
         <v>0.76066</v>
       </c>
-      <c r="S9" s="1">
-        <f t="shared" ref="S9:S10" si="7">AVERAGE(G9,D9,J9,M9,P9)</f>
+      <c r="T9" s="1">
+        <f t="shared" ref="T9:T10" si="7">AVERAGE(H9,E9,K9,N9,Q9)</f>
         <v>0.12940000000000002</v>
       </c>
-      <c r="T9" s="1">
-        <f t="shared" ref="T9:T10" si="8">AVERAGE(H9,E9,K9,N9,Q9)</f>
+      <c r="U9" s="1">
+        <f t="shared" ref="U9:U10" si="8">AVERAGE(I9,F9,L9,O9,R9)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.37880000000000003</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>0.4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.28070000000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.88060000000000005</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.57809999999999995</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.78779999999999994</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>0.65820000000000001</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>0.67689999999999995</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>0.2</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>0.27579999999999999</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>0.625</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>0.2666</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>0.25</v>
       </c>
-      <c r="R10" s="1">
-        <f t="shared" si="6"/>
+      <c r="S10" s="1">
+        <f>AVERAGE(G10,D10,J10,M10,P10)</f>
         <v>0.62787999999999999</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <f t="shared" si="7"/>
         <v>0.33087999999999995</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <f t="shared" si="8"/>
         <v>0.29294000000000003</v>
       </c>
     </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.23519999999999999</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:S16" si="9">AVERAGE(G11,D11,J11,M11,P11)</f>
+        <v>0.80332000000000003</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:T16" si="10">AVERAGE(H11,E11,K11,N11,Q11)</f>
+        <v>9.1480000000000006E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:U16" si="11">AVERAGE(I11,F11,L11,O11,R11)</f>
+        <v>0.13066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.56059999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.47270000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.2666</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.7288</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="9"/>
+        <v>0.67239999999999989</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="10"/>
+        <v>0.3821</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="11"/>
+        <v>0.34077999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.62690000000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.75380000000000003</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.46660000000000001</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.2727</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="9"/>
+        <v>0.69916</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="10"/>
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="11"/>
+        <v>0.34158000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="9"/>
+        <v>0.77903999999999995</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="10"/>
+        <v>0.1928</v>
+      </c>
+      <c r="U14" s="1">
+        <f>AVERAGE(I14,F14,L14,O14,R14)</f>
+        <v>0.21271999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.63080000000000003</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="9"/>
+        <v>0.65832000000000002</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="10"/>
+        <v>0.31938</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="11"/>
+        <v>0.30036000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.6341</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.72199999999999986</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="10"/>
+        <v>0.33916000000000002</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="11"/>
+        <v>0.35540000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/2020_5_27報告分/cal.xlsx
+++ b/results/2020_5_27報告分/cal.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BC1689-EBBD-4523-922A-523C1FF010AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817498DE-121F-4368-BD5B-5EF240D97E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,10 +154,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +442,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:U8"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -453,36 +453,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" ref="S9:S10" si="6">AVERAGE(G9,D9,J9,M9,P9)</f>
+        <f t="shared" ref="S9" si="6">AVERAGE(G9,D9,J9,M9,P9)</f>
         <v>0.76066</v>
       </c>
       <c r="T9" s="1">
@@ -1049,10 +1049,10 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1">
@@ -1114,10 +1114,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="1">
@@ -1179,10 +1179,10 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -1244,10 +1244,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1">
@@ -1309,10 +1309,10 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="1">
@@ -1374,10 +1374,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -1439,8 +1439,8 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
